--- a/data/Game/Research.xlsx
+++ b/data/Game/Research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1383B07-BE45-4FA4-A6F9-769F2D61811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5111BD-782B-47D9-A1F9-272E1DC7B567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="4035" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="1" r:id="rId1"/>
@@ -522,12 +522,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -570,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -587,7 +587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -621,7 +621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -638,7 +638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -672,7 +672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -689,7 +689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>

--- a/data/Game/Research.xlsx
+++ b/data/Game/Research.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">hearth_stone</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Hearth Stone</t>
